--- a/FAO-dsd/DSD_FI_TRADE_PP.xlsx
+++ b/FAO-dsd/DSD_FI_TRADE_PP.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\USR\Manuals\2021\NFIS\Refdata\DSD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Egger\Documents\FIAS\SWS\Commodities Data\Processed Production\2022 data\Dissemination\Query Panel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F06764-E3B4-4F2B-81F0-F007121FD845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23370" windowHeight="6390"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>Order</t>
   </si>
@@ -110,21 +111,9 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>STAUS</t>
-  </si>
-  <si>
     <t>Attribute</t>
   </si>
   <si>
-    <t>CL_FI_SYMBOL</t>
-  </si>
-  <si>
-    <t>SYMBOL</t>
-  </si>
-  <si>
-    <t>FAO statistical symbol</t>
-  </si>
-  <si>
     <t>DSD for Fish Processed Products Production</t>
   </si>
   <si>
@@ -150,12 +139,21 @@
   </si>
   <si>
     <t>FSJ_UNIT</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>CL_FI_SYMBOL_SDMX</t>
+  </si>
+  <si>
+    <t>FAO SDMX statistical symbol</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -199,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -213,18 +211,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -505,11 +500,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B9" sqref="B9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,28 +519,24 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+        <v>29</v>
+      </c>
       <c r="D1" s="2"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -553,135 +544,132 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="5" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
